--- a/grading.xlsx
+++ b/grading.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zshha\OneDrive - CUHK-Shenzhen\大学\RoboMaster\RM-Dragopass EC group\orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72466EC5-9FCC-4E64-9596-06C21F74C50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Student ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>0+0+0+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+1+10+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,11 +401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -468,6 +476,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grading.xlsx
+++ b/grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zshha\OneDrive - CUHK-Shenzhen\大学\RoboMaster\RM-Dragopass EC group\orientation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuhko365-my.sharepoint.com/personal/123090823_link_cuhk_edu_cn/Documents/大学/RoboMaster/RM-Dragopass EC group/orientation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E81D37F-5BC2-40AA-AEAB-CC7C7DEACCF5}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Student ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>10+1+10+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+10+8+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+10+10+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wyx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,11 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -505,6 +521,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>98</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grading.xlsx
+++ b/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuhko365-my.sharepoint.com/personal/123090823_link_cuhk_edu_cn/Documents/大学/RoboMaster/RM-Dragopass EC group/orientation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E81D37F-5BC2-40AA-AEAB-CC7C7DEACCF5}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B36F7A-2500-4B2A-BE34-B3777398B4A5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="4817" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Student ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>wyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+8+3+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,11 +429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -579,6 +591,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grading.xlsx
+++ b/grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuhko365-my.sharepoint.com/personal/123090823_link_cuhk_edu_cn/Documents/大学/RoboMaster/RM-Dragopass EC group/orientation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B36F7A-2500-4B2A-BE34-B3777398B4A5}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81957FAA-1450-49ED-A213-E24A71BDE904}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="4817" windowWidth="16457" windowHeight="9454" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="13732" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Student ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,54 @@
   </si>
   <si>
     <t>clk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+0+6+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0361</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+0+0+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0835</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+10+7+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+0+10+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+10+10+10+10+10+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*****0705</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,10 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,11 +473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -442,7 +486,7 @@
     <col min="2" max="2" width="12.35546875" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="6" max="6" width="18.35546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,6 +664,209 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grading.xlsx
+++ b/grading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuhko365-my.sharepoint.com/personal/123090823_link_cuhk_edu_cn/Documents/大学/RoboMaster/RM-Dragopass EC group/orientation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81957FAA-1450-49ED-A213-E24A71BDE904}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{4D4182F6-42CD-4130-B568-169C48CE7B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286B1A63-742B-48BF-9E42-6BB5E763265E}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="13732" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="11143" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Student ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>*****0705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+0+10+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B14" sqref="B14"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -701,13 +713,13 @@
         <v>56</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -865,6 +877,35 @@
       </c>
       <c r="I13">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
